--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">FlexArray.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnpanData.h</t>
   </si>
   <si>
     <t xml:space="preserve">FlexArray&lt;AnpanData&gt;</t>
@@ -261,10 +264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -308,19 +311,27 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -333,10 +344,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,7 +362,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,32 +370,40 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>19</v>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="準備完了" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="アンパンデータ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="アンパンリスト" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="アンパン生成" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -194,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,6 +257,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -266,7 +297,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -282,39 +313,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,10 +353,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -362,31 +393,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation</t>
   </si>
   <si>
     <t xml:space="preserve">s32</t>
@@ -203,10 +206,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,10 +265,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,10 +276,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -298,7 +312,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="5:5 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,39 +327,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,10 +367,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -378,7 +392,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="5:5 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,31 +407,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アンパンデータ" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="アンパンリスト" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="アンパン生成" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="アンパン移動" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="アンパン回転" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -97,6 +99,24 @@
   </si>
   <si>
     <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketMoveAnpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoveAnpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoveMilliSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketRotateAnpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RotateAnpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RotateMilliSec</t>
   </si>
 </sst>
 </file>
@@ -208,8 +228,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="5:5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +332,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="5:5 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -392,7 +412,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="5:5 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,4 +474,187 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="アンパンデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="アンパン生成" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="アンパン移動" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="アンパン回転" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="アンパン停止" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t xml:space="preserve">RotateMilliSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketStopAnpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StopAnpan</t>
   </si>
 </sst>
 </file>
@@ -580,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -657,4 +664,112 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -671,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,17 +752,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="アンパンデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">Rotation</t>
@@ -233,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,10 +306,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -314,10 +317,21 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -354,39 +368,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -434,31 +448,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +502,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
@@ -506,23 +520,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,10 +577,21 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -603,23 +628,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -671,10 +696,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -689,23 +714,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,6 +775,17 @@
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterId</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
@@ -236,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,10 +276,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +287,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
@@ -295,7 +298,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
@@ -306,7 +309,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -317,10 +320,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,10 +331,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -368,39 +382,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -448,31 +462,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -520,23 +534,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,10 +602,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -628,23 +642,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -714,23 +728,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/Anpan.xlsx
+++ b/Packet/PacketData/Anpan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="アンパンデータ" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -42,33 +42,57 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">UUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">MasterId</t>
   </si>
   <si>
+    <t xml:space="preserve">マスタＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">X座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">Y座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Z座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rotation</t>
   </si>
   <si>
+    <t xml:space="preserve">回転</t>
+  </si>
+  <si>
     <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">Hp</t>
   </si>
   <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaxHp</t>
   </si>
   <si>
+    <t xml:space="preserve">最大HP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketAnpanList</t>
   </si>
   <si>
@@ -99,6 +123,9 @@
     <t xml:space="preserve">List</t>
   </si>
   <si>
+    <t xml:space="preserve">アンパンリスト</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketSpawnAnpan</t>
   </si>
   <si>
@@ -108,6 +135,9 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
+    <t xml:space="preserve">アンパンのデータ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketMoveAnpan</t>
   </si>
   <si>
@@ -117,6 +147,9 @@
     <t xml:space="preserve">MoveMilliSec</t>
   </si>
   <si>
+    <t xml:space="preserve">移動時間（ミリ秒）</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketRotateAnpan</t>
   </si>
   <si>
@@ -124,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">RotateMilliSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回転時間（ミリ秒）</t>
   </si>
   <si>
     <t xml:space="preserve">PacketStopAnpan</t>
@@ -239,10 +275,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -270,6 +306,9 @@
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -279,7 +318,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,10 +329,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,10 +343,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,10 +357,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,10 +371,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,10 +385,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,10 +399,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -364,10 +424,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,39 +442,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,10 +482,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -444,10 +507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,31 +525,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,7 +560,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -516,10 +582,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,23 +600,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,16 +629,22 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,10 +652,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,10 +666,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,10 +680,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -624,10 +705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,23 +723,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,16 +752,22 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,10 +775,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +800,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,23 +818,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,16 +847,22 @@
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,10 +870,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,10 +884,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,10 +898,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
